--- a/biology/Zoologie/Homopholis_fasciata/Homopholis_fasciata.xlsx
+++ b/biology/Zoologie/Homopholis_fasciata/Homopholis_fasciata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homopholis fasciata est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homopholis fasciata est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Somalie, en Éthiopie, au Kenya et en Tanzanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Somalie, en Éthiopie, au Kenya et en Tanzanie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces animaux vivent sous un climat subtropical chaud et humide, avec des températures diurnes entre 25 et 35 °C la journée selon les endroits, et chutant vers 25 °C, rarement moins la nuit. L'hygrométrie est élevée.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko arboricole et nocturne.
 </t>
@@ -604,7 +622,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les œufs incubent de quatre à cinq mois avant d'éclore.
 </t>
@@ -635,7 +655,9 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre cette espèce en terrariophilie. Il est facile à maintenir en captivité.
 </t>
@@ -666,7 +688,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Boulenger 1890 : First report on additions to the lizard collection in the British Museum (Natural History). Proceedings of the Zoological Society of London, vol. 1890, p. 77—86 (texte intégral).
 Steindachner, 1906 : Über Homopholis Erlangeri (n. Sp.) aus Abessinien, Alestes Sadleri Blgr. [Männchen und Weibchen] aus dem Victoria-Nyansa  und Varicorhinus Tornieri (n. Sp.) aus Deutsch-Kamerun. Annalen des Kaiserlich-Königlichen Naturhistorischen Hofmuseums, Wien, vol. 21, p. 149-155 (texte intégral).</t>
